--- a/src/main/resources/templet/upload/addready.xlsx
+++ b/src/main/resources/templet/upload/addready.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="135" windowWidth="19395" windowHeight="7605"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
   <si>
     <t>客户</t>
   </si>
@@ -90,43 +90,175 @@
     <t>折扣后金额</t>
   </si>
   <si>
-    <t>入库时间</t>
-  </si>
-  <si>
-    <t>入库数量</t>
-  </si>
-  <si>
     <t>检测时间</t>
   </si>
   <si>
     <t>检测结果</t>
   </si>
   <si>
-    <t>出库时间</t>
-  </si>
-  <si>
-    <t>出库数量</t>
-  </si>
-  <si>
-    <t>挂账数量</t>
-  </si>
-  <si>
-    <t>挂账金额</t>
-  </si>
-  <si>
-    <t>挂账日期</t>
+    <t>入库时间1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库数量1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库时间2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库数量2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库时间3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库数量3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库时间5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库数量5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库时间1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库数量1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库时间2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库数量2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库时间3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库数量3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库时间4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库数量4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库时间5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>出库数量5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账数量1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账金额1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账日期1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账数量2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账金额2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账日期2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账数量3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账金额3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账日期3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账数量4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账金额4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账日期4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账数量5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账金额5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂账日期5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库时间4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>入库数量4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -134,13 +266,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -153,7 +278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -176,20 +301,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -197,7 +334,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -493,15 +630,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI1"/>
+  <dimension ref="A1:BK1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:AI1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="T2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:35" ht="27">
+    <row r="1" spans="1:63" ht="27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,12 +742,97 @@
         <v>31</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
